--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_20.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_1_20.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1055864.082318955</v>
+        <v>1053976.500802553</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800621</v>
+        <v>2264668.837800619</v>
       </c>
     </row>
     <row r="8">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>275.3126956699936</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>106.7209824064456</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>125.4417790696913</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,7 +832,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -859,16 +859,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>54.47555601903397</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>352.0551663671685</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>95.47601113260059</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>66.97894477928212</v>
+        <v>8.546296656423063</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -1148,10 +1148,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1181,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>60.14397712450032</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>298.3540381929898</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>41.82038493216699</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,28 +1333,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>56.49576810820431</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,22 +1525,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>108.6493083062501</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>33.35146980185843</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>36.4159300638912</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
         <v>286.2373523985773</v>
@@ -1831,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>33.35146980185809</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>25.88083521917726</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>29.18937547121062</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,10 +2242,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,16 +2287,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>248.8881844540489</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>59.77945773664911</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2476,13 +2476,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>123.3569442318725</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2539,10 +2539,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>105.6571329437501</v>
       </c>
     </row>
     <row r="26">
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>51.79025903913183</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185814</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2807,7 +2807,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H29" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I29" t="n">
         <v>81.77913505274074</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533802</v>
+        <v>124.6287235533801</v>
       </c>
       <c r="C31" t="n">
         <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965527</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801209</v>
+        <v>91.230706018012</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437416</v>
+        <v>90.21779139437407</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348205</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>45.40012322653818</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357149</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.76109577523571</v>
+        <v>54.76109577523562</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7175533550462</v>
+        <v>142.7175533550461</v>
       </c>
       <c r="T31" t="n">
-        <v>166.3443044298322</v>
+        <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700203</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952709</v>
+        <v>196.9343866952708</v>
       </c>
       <c r="W31" t="n">
-        <v>16.8013478743805</v>
+        <v>231.3197417080338</v>
       </c>
       <c r="X31" t="n">
-        <v>170.5063987604801</v>
+        <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>163.3813967235377</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417121</v>
       </c>
       <c r="G32" t="n">
         <v>411.9645167896915</v>
@@ -3083,7 +3083,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U32" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789537</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.7791350527396</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417112</v>
       </c>
       <c r="G38" t="n">
         <v>411.9645167896915</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
         <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="41">
@@ -3746,7 +3746,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H43" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692853</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1915.737096240334</v>
+        <v>1313.879478346266</v>
       </c>
       <c r="C2" t="n">
-        <v>1546.774579299922</v>
+        <v>944.9169614058544</v>
       </c>
       <c r="D2" t="n">
-        <v>1546.774579299922</v>
+        <v>586.651262799104</v>
       </c>
       <c r="E2" t="n">
-        <v>1160.986326701678</v>
+        <v>586.651262799104</v>
       </c>
       <c r="F2" t="n">
-        <v>750.0004219120701</v>
+        <v>175.6653580094964</v>
       </c>
       <c r="G2" t="n">
-        <v>332.036613810257</v>
+        <v>161.7419539480873</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>161.7419539480873</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4334,13 +4334,13 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4355,25 +4355,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304455</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V2" t="n">
-        <v>2302.336936304455</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W2" t="n">
-        <v>2302.336936304455</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X2" t="n">
-        <v>2302.336936304455</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="Y2" t="n">
-        <v>2302.336936304455</v>
+        <v>1700.479318410388</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4419,19 +4419,19 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C4" t="n">
-        <v>338.4002221349972</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
         <v>53.94298182036445</v>
@@ -4492,46 +4492,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124031</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810048</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y4" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1189.50268270914</v>
+        <v>1472.812633166741</v>
       </c>
       <c r="C5" t="n">
-        <v>820.540165768728</v>
+        <v>1472.812633166741</v>
       </c>
       <c r="D5" t="n">
-        <v>820.540165768728</v>
+        <v>1114.546934559991</v>
       </c>
       <c r="E5" t="n">
-        <v>820.540165768728</v>
+        <v>728.7586819617466</v>
       </c>
       <c r="F5" t="n">
-        <v>409.5542609791204</v>
+        <v>721.8131812125431</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>303.84937311073</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2302.336936304455</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2302.336936304455</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V5" t="n">
-        <v>2302.336936304455</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="W5" t="n">
-        <v>1949.568281034341</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="X5" t="n">
-        <v>1576.102522773261</v>
+        <v>1859.412473230863</v>
       </c>
       <c r="Y5" t="n">
-        <v>1576.102522773261</v>
+        <v>1859.412473230863</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4665,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,22 +4699,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>211.6913543878343</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064344</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064344</v>
+        <v>290.5651556036576</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084171</v>
+        <v>62.57560470564027</v>
       </c>
       <c r="Y7" t="n">
-        <v>279.346854164887</v>
+        <v>62.57560470564027</v>
       </c>
     </row>
     <row r="8">
@@ -4778,43 +4778,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1954.141365880777</v>
+        <v>1791.109440255352</v>
       </c>
       <c r="C8" t="n">
-        <v>1954.141365880777</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="D8" t="n">
-        <v>1595.875667274027</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E8" t="n">
-        <v>1210.087414675782</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>799.1015098861748</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2581.368909503766</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U8" t="n">
-        <v>2327.607124141857</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V8" t="n">
-        <v>2327.607124141857</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="W8" t="n">
-        <v>2327.607124141857</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="X8" t="n">
-        <v>1954.141365880777</v>
+        <v>2092.477155601806</v>
       </c>
       <c r="Y8" t="n">
-        <v>1954.141365880777</v>
+        <v>1791.109440255352</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>289.7554128984182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>289.7554128984182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>289.7554128984182</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>141.8423193160251</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>141.8423193160251</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4981,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>579.9823256406182</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286579</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="U10" t="n">
-        <v>471.4038777286579</v>
+        <v>365.6939024587809</v>
       </c>
       <c r="V10" t="n">
-        <v>471.4038777286579</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="W10" t="n">
-        <v>471.4038777286579</v>
+        <v>111.0094142528941</v>
       </c>
       <c r="X10" t="n">
-        <v>471.4038777286579</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>471.4038777286579</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,67 +5024,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>190.6805289025653</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K12" t="n">
-        <v>339.7502131046251</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L12" t="n">
-        <v>953.6472828615138</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M12" t="n">
-        <v>1722.015429253975</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N12" t="n">
-        <v>2051.878056918008</v>
+        <v>1443.347833878256</v>
       </c>
       <c r="O12" t="n">
-        <v>2331.418122136705</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>879.2482765610114</v>
+        <v>130.9054447954964</v>
       </c>
       <c r="C13" t="n">
-        <v>710.3120936331045</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557903</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U13" t="n">
-        <v>1209.787631771461</v>
+        <v>675.0071030383439</v>
       </c>
       <c r="V13" t="n">
-        <v>1209.787631771461</v>
+        <v>420.322614832457</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.787631771461</v>
+        <v>130.9054447954964</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.787631771461</v>
+        <v>130.9054447954964</v>
       </c>
       <c r="Y13" t="n">
-        <v>988.9950526279307</v>
+        <v>130.9054447954964</v>
       </c>
     </row>
     <row r="14">
@@ -5267,22 +5267,22 @@
         <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823784</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
@@ -5355,19 +5355,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256435</v>
+        <v>154.3878371814099</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277033</v>
+        <v>303.4575213834697</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341674</v>
+        <v>550.2226492899338</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126629</v>
+        <v>857.5427825698953</v>
       </c>
       <c r="N15" t="n">
-        <v>2051.878056918008</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O15" t="n">
         <v>2331.418122136705</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>284.1174986139256</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C16" t="n">
-        <v>284.1174986139256</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D16" t="n">
-        <v>134.0008592015901</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E16" t="n">
-        <v>134.0008592015901</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F16" t="n">
-        <v>134.0008592015901</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
         <v>97.21709146028584</v>
@@ -5443,7 +5443,7 @@
         <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.063975947119</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1298.996260473455</v>
+        <v>964.1357418247853</v>
       </c>
       <c r="U16" t="n">
-        <v>1009.867621687013</v>
+        <v>675.0071030383435</v>
       </c>
       <c r="V16" t="n">
-        <v>755.1831334811259</v>
+        <v>420.3226148324567</v>
       </c>
       <c r="W16" t="n">
-        <v>465.7659634441653</v>
+        <v>130.905444795496</v>
       </c>
       <c r="X16" t="n">
-        <v>465.7659634441653</v>
+        <v>130.905444795496</v>
       </c>
       <c r="Y16" t="n">
-        <v>465.7659634441653</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,46 +5498,46 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823781</v>
+        <v>365.8813331823779</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514077</v>
+        <v>889.2841917514075</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231264</v>
@@ -5549,16 +5549,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5598,22 +5598,22 @@
         <v>412.6079778147081</v>
       </c>
       <c r="L18" t="n">
-        <v>659.3731057211721</v>
+        <v>929.516333276596</v>
       </c>
       <c r="M18" t="n">
-        <v>966.6932390011339</v>
+        <v>1236.836466556558</v>
       </c>
       <c r="N18" t="n">
-        <v>1771.104817265285</v>
+        <v>2041.248044820708</v>
       </c>
       <c r="O18" t="n">
-        <v>2050.644882483982</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P18" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>761.0055017299134</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>592.0693188020065</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>441.9526793896707</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>441.9526793896707</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
@@ -5686,37 +5686,37 @@
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1498.916270557903</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U19" t="n">
-        <v>1209.787631771461</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V19" t="n">
-        <v>1209.787631771461</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W19" t="n">
-        <v>1209.787631771461</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>981.7980808734435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
-        <v>761.0055017299134</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805457</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822459</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5765,7 +5765,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
         <v>4454.632848899127</v>
@@ -5774,28 +5774,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,31 +5826,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K21" t="n">
-        <v>412.6079778147082</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>745.6707680030231</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M21" t="n">
-        <v>1514.038914395485</v>
+        <v>1396.107276203138</v>
       </c>
       <c r="N21" t="n">
-        <v>1843.901542059517</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O21" t="n">
-        <v>2123.441607278215</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q21" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>395.2468244550148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>395.2468244550148</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5926,34 +5926,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U22" t="n">
-        <v>1164.055751909234</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V22" t="n">
-        <v>912.6535453899928</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="W22" t="n">
-        <v>623.2363753530321</v>
+        <v>385.5899330013831</v>
       </c>
       <c r="X22" t="n">
-        <v>395.2468244550148</v>
+        <v>157.6003821033657</v>
       </c>
       <c r="Y22" t="n">
-        <v>395.2468244550148</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.284191751408</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6011,28 +6011,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6054,37 +6054,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>378.1030765138935</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>624.8682044203576</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>932.1883377003194</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1736.59991596447</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183167</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,13 +6121,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>564.1830073829216</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>245.1301850426789</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
         <v>97.21709146028584</v>
@@ -6151,10 +6151,10 @@
         <v>259.7851881688074</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799367</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471195</v>
       </c>
       <c r="N25" t="n">
         <v>1049.608084974667</v>
@@ -6166,31 +6166,31 @@
         <v>1460.082827585747</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R25" t="n">
-        <v>1387.841167119728</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S25" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T25" t="n">
-        <v>1263.238193148139</v>
+        <v>964.1357418247867</v>
       </c>
       <c r="U25" t="n">
-        <v>1263.238193148139</v>
+        <v>675.0071030383449</v>
       </c>
       <c r="V25" t="n">
-        <v>1263.238193148139</v>
+        <v>675.0071030383449</v>
       </c>
       <c r="W25" t="n">
-        <v>973.8210231111786</v>
+        <v>385.5899330013842</v>
       </c>
       <c r="X25" t="n">
-        <v>745.8314722131613</v>
+        <v>385.5899330013842</v>
       </c>
       <c r="Y25" t="n">
-        <v>745.8314722131613</v>
+        <v>278.8655562905255</v>
       </c>
     </row>
     <row r="26">
@@ -6206,28 +6206,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823782</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6242,10 +6242,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6303,22 +6303,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643586</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.376451307619</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526316</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>579.3570368996733</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C28" t="n">
-        <v>579.3570368996733</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D28" t="n">
-        <v>429.2403974873376</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F28" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>964.1357418247856</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.78763177146</v>
+        <v>675.0071030383438</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.78763177146</v>
+        <v>420.3226148324568</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.78763177146</v>
+        <v>130.9054447954961</v>
       </c>
       <c r="X28" t="n">
-        <v>981.798080873443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y28" t="n">
-        <v>761.005501729913</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="29">
@@ -6443,31 +6443,31 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6543,19 +6543,19 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>891.4406401619856</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M30" t="n">
-        <v>1198.760773441947</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>1528.62340110598</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,52 +6595,52 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>656.2176762508391</v>
+        <v>439.5324299542202</v>
       </c>
       <c r="C31" t="n">
-        <v>543.042358604303</v>
+        <v>326.3571123076841</v>
       </c>
       <c r="D31" t="n">
-        <v>448.686584473338</v>
+        <v>326.3571123076841</v>
       </c>
       <c r="E31" t="n">
-        <v>356.5343561723157</v>
+        <v>234.2048840066619</v>
       </c>
       <c r="F31" t="n">
-        <v>265.4052739557761</v>
+        <v>143.0758017901224</v>
       </c>
       <c r="G31" t="n">
-        <v>152.9908175569676</v>
+        <v>143.0758017901224</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569676</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864671</v>
+        <v>164.2510079864676</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933501</v>
+        <v>369.0876362933507</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667508</v>
+        <v>671.4509053667515</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962051</v>
+        <v>997.6688721962056</v>
       </c>
       <c r="N31" t="n">
-        <v>1322.864205286024</v>
+        <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
         <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021647</v>
+        <v>1842.641396021648</v>
       </c>
       <c r="Q31" t="n">
-        <v>1936.126063056074</v>
+        <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
         <v>1880.811824899271</v>
@@ -6649,22 +6649,22 @@
         <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
-        <v>1568.62813016707</v>
+        <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356661999</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
         <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>1119.365675278514</v>
+        <v>902.6804289818944</v>
       </c>
       <c r="X31" t="n">
-        <v>947.1369896618673</v>
+        <v>730.4517433652479</v>
       </c>
       <c r="Y31" t="n">
-        <v>782.105275799708</v>
+        <v>565.4200295030889</v>
       </c>
     </row>
     <row r="32">
@@ -6677,13 +6677,13 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
         <v>904.3190116155888</v>
@@ -6698,25 +6698,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.627437207831</v>
@@ -6731,13 +6731,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V32" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X32" t="n">
         <v>3205.060556590537</v>
@@ -6777,28 +6777,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>138.7081686256435</v>
+        <v>157.2587625717277</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>306.3284467737875</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619856</v>
+        <v>553.0935746802515</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C34" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083205</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
         <v>97.21709146028587</v>
@@ -6859,10 +6859,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6874,34 +6874,34 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q34" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986524</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155877</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6959,13 +6959,13 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
         <v>4262.3578574653</v>
@@ -7002,40 +7002,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>553.0935746802515</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q36" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,40 +7069,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083205</v>
+        <v>398.95459630832</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982967</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>177.0503551525403</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254961</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649695</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
-        <v>1048.866260860497</v>
+        <v>1048.866260860496</v>
       </c>
       <c r="N37" t="n">
         <v>1386.860941116388</v>
@@ -7111,34 +7111,34 @@
         <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184155</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7163,7 +7163,7 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7257,22 +7257,22 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L39" t="n">
-        <v>563.7235867775516</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M39" t="n">
-        <v>1332.091733170013</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N39" t="n">
-        <v>1661.954360834046</v>
+        <v>1171.725741678162</v>
       </c>
       <c r="O39" t="n">
-        <v>2331.418122136705</v>
+        <v>1841.189502980821</v>
       </c>
       <c r="P39" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7354,28 +7354,28 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986524</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771664</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862498</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045214</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003443</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405199</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155909</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
@@ -7415,46 +7415,46 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7476,40 +7476,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>287.7778528277034</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341675</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1103.683698656582</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P42" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083208</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103131</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525402</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254959</v>
       </c>
       <c r="L43" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7588,7 +7588,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q43" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
         <v>1996.265827986523</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7631,22 +7631,22 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7682,16 +7682,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7728,22 +7728,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>921.1936903636249</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643586</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1346.676219880508</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,28 +7804,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.0503551525402</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254959</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649694</v>
       </c>
       <c r="M46" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N46" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P46" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R46" t="n">
         <v>1996.265827986523</v>
@@ -7849,7 +7849,7 @@
         <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
   </sheetData>
@@ -8067,7 +8067,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270192</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719077</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516228</v>
       </c>
       <c r="N6" t="n">
         <v>479.3423743435536</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8544,13 +8544,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783518</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>52.49733361305231</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>9.900512684485989</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,7 +9003,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>15.83804904622873</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9012,13 +9012,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>423.3376789165115</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9246,7 +9246,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>272.8719470256808</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -9258,13 +9258,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>73.53204524670008</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9480,13 +9480,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>87.16935584025333</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>169.2863157167185</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,10 +9714,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>91.23759968302031</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9726,19 +9726,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>360.5026862907255</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,22 +10191,22 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>213.2603911806626</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10425,31 +10425,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>18.73797368291331</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298108</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10662,31 +10662,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>18.73797368291326</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>288.4091825776752</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599049</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10905,10 +10905,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>29.47535963978208</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>274.3657496970643</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11139,28 +11139,28 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3376789165113</v>
+        <v>85.30006332127817</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11309,7 +11309,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11376,28 +11376,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>50.62661940943622</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.18267187568721</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>133.8953512967694</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,7 +23665,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>130.0776383994864</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>185.2331835502367</v>
       </c>
     </row>
     <row r="17">
@@ -23890,22 +23890,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>119.540212803754</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
         <v>110.419245464272</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,10 +24130,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24175,16 +24175,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>3.249458869779119</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>158.8051956154457</v>
       </c>
     </row>
     <row r="23">
@@ -24364,13 +24364,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24412,13 +24412,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>98.19061682651682</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -24427,10 +24427,10 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>112.9275204083447</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>94.64370360743732</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,28 +24646,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>192.358185587179</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24841,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>93.41221638965519</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24850,13 +24850,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897904</v>
+        <v>48.31044851244077</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571481</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>214.5183938336534</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>984701.5873097042</v>
+        <v>984701.587309704</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>984701.5873097042</v>
+        <v>984701.587309704</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>984701.5873097042</v>
+        <v>984701.587309704</v>
       </c>
     </row>
     <row r="11">
@@ -26314,13 +26314,13 @@
         <v>410520.8849321416</v>
       </c>
       <c r="C2" t="n">
+        <v>410520.8849321415</v>
+      </c>
+      <c r="D2" t="n">
         <v>410520.8849321416</v>
       </c>
-      <c r="D2" t="n">
-        <v>410520.8849321415</v>
-      </c>
       <c r="E2" t="n">
-        <v>391029.0597377089</v>
+        <v>391029.0597377088</v>
       </c>
       <c r="F2" t="n">
         <v>391029.0597377088</v>
@@ -26329,31 +26329,31 @@
         <v>391029.0597377089</v>
       </c>
       <c r="H2" t="n">
+        <v>391029.0597377088</v>
+      </c>
+      <c r="I2" t="n">
         <v>391029.0597377089</v>
       </c>
-      <c r="I2" t="n">
-        <v>391029.0597377088</v>
-      </c>
       <c r="J2" t="n">
-        <v>391029.0597377087</v>
+        <v>391029.0597377089</v>
       </c>
       <c r="K2" t="n">
-        <v>406822.1373452706</v>
+        <v>406822.1373452707</v>
       </c>
       <c r="L2" t="n">
-        <v>410520.8849321422</v>
+        <v>410520.8849321423</v>
       </c>
       <c r="M2" t="n">
         <v>410520.8849321423</v>
       </c>
       <c r="N2" t="n">
-        <v>410520.8849321423</v>
+        <v>410520.884932142</v>
       </c>
       <c r="O2" t="n">
         <v>410520.8849321422</v>
       </c>
       <c r="P2" t="n">
-        <v>410520.8849321422</v>
+        <v>410520.8849321423</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768963</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26390,10 +26390,10 @@
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284564</v>
+        <v>44162.60530284576</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086687</v>
+        <v>10342.90680086677</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338371</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.6053028455</v>
+        <v>44162.60530284577</v>
       </c>
     </row>
     <row r="4">
@@ -26421,43 +26421,43 @@
         <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007443</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="F4" t="n">
         <v>7916.731656007483</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007461</v>
+        <v>7916.731656007484</v>
       </c>
       <c r="H4" t="n">
+        <v>7916.731656007496</v>
+      </c>
+      <c r="I4" t="n">
         <v>7916.731656007483</v>
       </c>
-      <c r="I4" t="n">
-        <v>7916.731656007484</v>
-      </c>
       <c r="J4" t="n">
-        <v>7916.731656007498</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020402</v>
+        <v>26081.35417020407</v>
       </c>
       <c r="L4" t="n">
-        <v>30335.51889732794</v>
+        <v>30335.51889732793</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732801</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="O4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732797</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732795</v>
+        <v>30335.51889732797</v>
       </c>
     </row>
     <row r="5">
@@ -26476,22 +26476,22 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="F5" t="n">
+      <c r="I5" t="n">
         <v>91987.32594871664</v>
       </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
         <v>96628.20853022279</v>
@@ -26500,16 +26500,16 @@
         <v>97715.1058200254</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-410223.1210617331</v>
+        <v>-410223.1210617332</v>
       </c>
       <c r="C6" t="n">
-        <v>179744.7581528113</v>
+        <v>179744.7581528112</v>
       </c>
       <c r="D6" t="n">
-        <v>179744.7581528112</v>
+        <v>179744.7581528114</v>
       </c>
       <c r="E6" t="n">
-        <v>-234035.0343439115</v>
+        <v>-234132.4934698836</v>
       </c>
       <c r="F6" t="n">
-        <v>291125.0021329847</v>
+        <v>291027.5430070126</v>
       </c>
       <c r="G6" t="n">
-        <v>291125.0021329848</v>
+        <v>291027.5430070126</v>
       </c>
       <c r="H6" t="n">
-        <v>291125.0021329848</v>
+        <v>291027.5430070125</v>
       </c>
       <c r="I6" t="n">
-        <v>291125.0021329849</v>
+        <v>291027.5430070126</v>
       </c>
       <c r="J6" t="n">
-        <v>114701.7829403916</v>
+        <v>114604.3238144197</v>
       </c>
       <c r="K6" t="n">
-        <v>239949.9693419981</v>
+        <v>239931.4756040637</v>
       </c>
       <c r="L6" t="n">
-        <v>272127.3534139219</v>
+        <v>272127.3534139221</v>
       </c>
       <c r="M6" t="n">
         <v>147669.2449809518</v>
       </c>
       <c r="N6" t="n">
-        <v>282470.260214789</v>
+        <v>282470.2602147887</v>
       </c>
       <c r="O6" t="n">
-        <v>282470.2602147889</v>
+        <v>282470.2602147888</v>
       </c>
       <c r="P6" t="n">
-        <v>238307.6549119434</v>
+        <v>238307.6549119432</v>
       </c>
     </row>
   </sheetData>
@@ -26707,25 +26707,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="L2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964064</v>
       </c>
       <c r="N2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
-      <c r="O2" t="n">
-        <v>68.13189012964062</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26735,31 +26735,31 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="C3" t="n">
         <v>377.7436642170866</v>
-      </c>
-      <c r="C3" t="n">
-        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541003</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="I3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541003</v>
@@ -26774,10 +26774,10 @@
         <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855705</v>
+        <v>55.2032566285572</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108359</v>
+        <v>12.92863350108347</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855706</v>
+        <v>55.20325662855721</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855705</v>
+        <v>55.2032566285572</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>48.61007709436359</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>45.21033383841562</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,28 +27424,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>23.17369394852111</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,16 +27579,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27597,13 +27597,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>232.047442317557</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>61.72900365362653</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>228.4467616317565</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,16 +27661,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,7 +27679,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>112.8530354026552</v>
+        <v>171.2856835255142</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27834,13 +27834,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27901,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>156.3043432331575</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>87.88390046306381</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>125.4894173268839</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>169.2138872808328</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28612,7 +28612,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-4.831690603168681e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855717</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855708</v>
+        <v>55.20325662855717</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30466,7 +30466,7 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>1.70530256582424e-13</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,7 +31838,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
         <v>288.4168775622982</v>
@@ -31847,10 +31847,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O12" t="n">
         <v>424.9599466855526</v>
@@ -31865,10 +31865,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,10 +32084,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32464,7 +32464,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
         <v>128.6967545176652</v>
@@ -32473,31 +32473,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32546,31 +32546,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R21" t="n">
         <v>110.8952201095118</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32637,7 +32637,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
         <v>229.1447054263751</v>
@@ -32649,19 +32649,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L23" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,46 +32777,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32874,10 +32874,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32886,19 +32886,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,16 +32935,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32953,7 +32953,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32971,7 +32971,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,7 +33014,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,10 +33032,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33050,10 +33050,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33114,7 +33114,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33126,16 +33126,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34132,31 +34132,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34205,31 +34205,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
         <v>110.8952201095118</v>
@@ -34284,7 +34284,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,7 +34296,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
@@ -34308,19 +34308,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,16 +34357,16 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
         <v>424.6341946041488</v>
@@ -34375,7 +34375,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
         <v>595.6470695927186</v>
@@ -34384,7 +34384,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
         <v>360.4902833647496</v>
@@ -34393,7 +34393,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,7 +34436,7 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
@@ -34445,7 +34445,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
         <v>288.4168775622982</v>
@@ -34454,10 +34454,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O45" t="n">
         <v>424.9599466855526</v>
@@ -34472,10 +34472,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34536,7 +34536,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34548,16 +34548,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,16 +34787,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624589</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279167</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>325.145920326212</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>94.40751256795899</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K12" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M12" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>343.0950860824988</v>
       </c>
       <c r="O12" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490668</v>
+        <v>57.74822800113539</v>
       </c>
       <c r="K15" t="n">
         <v>150.5754385879392</v>
@@ -35732,19 +35732,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N15" t="n">
-        <v>756.5322523145245</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,25 +35966,25 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>522.129651981705</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>280.6254601782248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q18" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36124,25 +36124,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,13 +36200,13 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>336.4270607962777</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>479.7106927671848</v>
       </c>
       <c r="N21" t="n">
         <v>333.1945733980129</v>
@@ -36215,13 +36215,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,19 +36276,19 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
         <v>236.2373515206029</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36358,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005178</v>
+        <v>241.8130382709596</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,13 +36595,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36671,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411081</v>
+        <v>642.8663885318336</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36768,10 +36768,10 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>546.4549645786756</v>
       </c>
       <c r="O30" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.7110267941226</v>
+        <v>67.7110267941227</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
       </c>
       <c r="L31" t="n">
-        <v>305.4174435084856</v>
+        <v>305.4174435084857</v>
       </c>
       <c r="M31" t="n">
-        <v>329.5130978075296</v>
+        <v>329.5130978075297</v>
       </c>
       <c r="N31" t="n">
-        <v>328.4801344341607</v>
+        <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.44060814916</v>
+        <v>291.4406081491601</v>
       </c>
       <c r="P31" t="n">
         <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043183</v>
+        <v>94.42895660043193</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>41.91017895490668</v>
+        <v>60.64815263781999</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N33" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,10 +37239,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q34" t="n">
         <v>107.3575901015154</v>
@@ -37306,7 +37306,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>267.9956786389376</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P36" t="n">
-        <v>495.5025975091999</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37561,7 +37561,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
         <v>59.8253897034981</v>
@@ -37625,10 +37625,10 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L39" t="n">
-        <v>278.7330645958064</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N39" t="n">
         <v>333.1945733980129</v>
@@ -37637,13 +37637,13 @@
         <v>676.2260215178377</v>
       </c>
       <c r="P39" t="n">
-        <v>207.0934149315247</v>
+        <v>481.459164628589</v>
       </c>
       <c r="Q39" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37713,7 +37713,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
         <v>246.5154907414414</v>
@@ -37783,25 +37783,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N42" t="n">
-        <v>756.5322523145243</v>
+        <v>418.4946367192911</v>
       </c>
       <c r="O42" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K43" t="n">
         <v>219.8343186595512</v>
@@ -38017,19 +38017,19 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
         <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P44" t="n">
         <v>570.6060255109123</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L45" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504662</v>
+        <v>361.0509964599025</v>
       </c>
       <c r="N45" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38184,13 +38184,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
